--- a/data/TUN_ADM1_FL.xlsx
+++ b/data/TUN_ADM1_FL.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="POP_EAI_function" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="BU_EAI_function" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="AGR_EAI_function" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -594,70 +595,70 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>811198.812</v>
+        <v>1086296.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>15.538</v>
       </c>
       <c r="G2" t="n">
-        <v>162.947</v>
+        <v>146.799</v>
       </c>
       <c r="H2" t="n">
-        <v>805.149</v>
+        <v>927.063</v>
       </c>
       <c r="I2" t="n">
-        <v>1192.241</v>
+        <v>1222.829</v>
       </c>
       <c r="J2" t="n">
-        <v>1329.903</v>
+        <v>1378.42</v>
       </c>
       <c r="K2" t="n">
-        <v>1401.213</v>
+        <v>1437.427</v>
       </c>
       <c r="L2" t="n">
-        <v>2115.758</v>
+        <v>1995.339</v>
       </c>
       <c r="M2" t="n">
-        <v>3038.33</v>
+        <v>3247.465</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="O2" t="n">
-        <v>0.402</v>
+        <v>0.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.151</v>
+        <v>2.791</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.429</v>
+        <v>4.016</v>
       </c>
       <c r="R2" t="n">
-        <v>3.981</v>
+        <v>4.726</v>
       </c>
       <c r="S2" t="n">
-        <v>4.231</v>
+        <v>5.064</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196</v>
+        <v>6.829</v>
       </c>
       <c r="U2" t="n">
-        <v>9.683</v>
+        <v>10.662</v>
       </c>
       <c r="V2" t="n">
-        <v>0.167</v>
+        <v>0.215</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.34</v>
+        <v>0.421</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.254</v>
+        <v>0.318</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -685,73 +686,73 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>308988</v>
+        <v>399232.156</v>
       </c>
       <c r="F3" t="n">
-        <v>151.498</v>
+        <v>24.465</v>
       </c>
       <c r="G3" t="n">
-        <v>2357.455</v>
+        <v>1438.876</v>
       </c>
       <c r="H3" t="n">
-        <v>4141.589</v>
+        <v>2840.085</v>
       </c>
       <c r="I3" t="n">
-        <v>5320.138</v>
+        <v>3986.051</v>
       </c>
       <c r="J3" t="n">
-        <v>6926.521</v>
+        <v>5552.07</v>
       </c>
       <c r="K3" t="n">
-        <v>10459.485</v>
+        <v>8622.343999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>15222.742</v>
+        <v>11797.053</v>
       </c>
       <c r="M3" t="n">
-        <v>17366.697</v>
+        <v>13390.322</v>
       </c>
       <c r="N3" t="n">
-        <v>1.534</v>
+        <v>0.827</v>
       </c>
       <c r="O3" t="n">
-        <v>14.125</v>
+        <v>7.854</v>
       </c>
       <c r="P3" t="n">
-        <v>65.496</v>
+        <v>24.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>170.869</v>
+        <v>47.387</v>
       </c>
       <c r="R3" t="n">
-        <v>251.278</v>
+        <v>79.148</v>
       </c>
       <c r="S3" t="n">
-        <v>332.034</v>
+        <v>117.93</v>
       </c>
       <c r="T3" t="n">
-        <v>469.352</v>
+        <v>181.078</v>
       </c>
       <c r="U3" t="n">
-        <v>602.061</v>
+        <v>243.557</v>
       </c>
       <c r="V3" t="n">
-        <v>7.857</v>
+        <v>2.863</v>
       </c>
       <c r="W3" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="X3" t="n">
-        <v>15.996</v>
+        <v>5.607</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.927</v>
+        <v>4.235</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -776,73 +777,73 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>695610.25</v>
+        <v>921324.875</v>
       </c>
       <c r="F4" t="n">
-        <v>1866.856</v>
+        <v>640.092</v>
       </c>
       <c r="G4" t="n">
-        <v>6517.099</v>
+        <v>2899.903</v>
       </c>
       <c r="H4" t="n">
-        <v>13540.628</v>
+        <v>7887.693</v>
       </c>
       <c r="I4" t="n">
-        <v>21405.988</v>
+        <v>15522.725</v>
       </c>
       <c r="J4" t="n">
-        <v>31928.199</v>
+        <v>28771.775</v>
       </c>
       <c r="K4" t="n">
-        <v>43795.199</v>
+        <v>40657.301</v>
       </c>
       <c r="L4" t="n">
-        <v>62083.609</v>
+        <v>59720</v>
       </c>
       <c r="M4" t="n">
-        <v>75277.484</v>
+        <v>75081.148</v>
       </c>
       <c r="N4" t="n">
-        <v>23.29</v>
+        <v>5.693</v>
       </c>
       <c r="O4" t="n">
-        <v>67.801</v>
+        <v>19.326</v>
       </c>
       <c r="P4" t="n">
-        <v>167.729</v>
+        <v>45.713</v>
       </c>
       <c r="Q4" t="n">
-        <v>254.491</v>
+        <v>87.197</v>
       </c>
       <c r="R4" t="n">
-        <v>344.365</v>
+        <v>146.237</v>
       </c>
       <c r="S4" t="n">
-        <v>441.129</v>
+        <v>208.847</v>
       </c>
       <c r="T4" t="n">
-        <v>565.894</v>
+        <v>298.92</v>
       </c>
       <c r="U4" t="n">
-        <v>668.548</v>
+        <v>375.095</v>
       </c>
       <c r="V4" t="n">
-        <v>17.575</v>
+        <v>5.811</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="X4" t="n">
-        <v>30.817</v>
+        <v>10.613</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.196</v>
+        <v>8.212</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="5">
@@ -867,73 +868,73 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>594089.625</v>
+        <v>789970.375</v>
       </c>
       <c r="F5" t="n">
-        <v>2115.833</v>
+        <v>1066.504</v>
       </c>
       <c r="G5" t="n">
-        <v>3781.97</v>
+        <v>2219.062</v>
       </c>
       <c r="H5" t="n">
-        <v>6731.81</v>
+        <v>4171.503</v>
       </c>
       <c r="I5" t="n">
-        <v>9872.065000000001</v>
+        <v>6826.807</v>
       </c>
       <c r="J5" t="n">
-        <v>12502.947</v>
+        <v>10844.654</v>
       </c>
       <c r="K5" t="n">
-        <v>14367.277</v>
+        <v>13271.925</v>
       </c>
       <c r="L5" t="n">
-        <v>17093.631</v>
+        <v>16641.006</v>
       </c>
       <c r="M5" t="n">
-        <v>18579.182</v>
+        <v>19013.492</v>
       </c>
       <c r="N5" t="n">
-        <v>5.722</v>
+        <v>3.036</v>
       </c>
       <c r="O5" t="n">
-        <v>11.248</v>
+        <v>6.847</v>
       </c>
       <c r="P5" t="n">
-        <v>20.473</v>
+        <v>12.903</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.001</v>
+        <v>22.166</v>
       </c>
       <c r="R5" t="n">
-        <v>42.302</v>
+        <v>38.95</v>
       </c>
       <c r="S5" t="n">
-        <v>51.601</v>
+        <v>50.882</v>
       </c>
       <c r="T5" t="n">
-        <v>67.134</v>
+        <v>71.38500000000001</v>
       </c>
       <c r="U5" t="n">
-        <v>80.31</v>
+        <v>91.273</v>
       </c>
       <c r="V5" t="n">
-        <v>2.583</v>
+        <v>1.765</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4.071</v>
+        <v>2.944</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.327</v>
+        <v>2.354</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -958,70 +959,70 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>397284.844</v>
+        <v>508527.094</v>
       </c>
       <c r="F6" t="n">
-        <v>32.183</v>
+        <v>12.93</v>
       </c>
       <c r="G6" t="n">
-        <v>113.177</v>
+        <v>24.52</v>
       </c>
       <c r="H6" t="n">
-        <v>194.719</v>
+        <v>31.382</v>
       </c>
       <c r="I6" t="n">
-        <v>278.701</v>
+        <v>89.374</v>
       </c>
       <c r="J6" t="n">
-        <v>278.701</v>
+        <v>100.327</v>
       </c>
       <c r="K6" t="n">
-        <v>328.879</v>
+        <v>121.219</v>
       </c>
       <c r="L6" t="n">
-        <v>403.361</v>
+        <v>240.349</v>
       </c>
       <c r="M6" t="n">
-        <v>520.378</v>
+        <v>310.192</v>
       </c>
       <c r="N6" t="n">
-        <v>0.246</v>
+        <v>0.208</v>
       </c>
       <c r="O6" t="n">
-        <v>0.594</v>
+        <v>0.273</v>
       </c>
       <c r="P6" t="n">
-        <v>1.443</v>
+        <v>0.451</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>0.768</v>
       </c>
       <c r="R6" t="n">
-        <v>2.228</v>
+        <v>1.066</v>
       </c>
       <c r="S6" t="n">
-        <v>2.979</v>
+        <v>1.363</v>
       </c>
       <c r="T6" t="n">
-        <v>4.215</v>
+        <v>2.233</v>
       </c>
       <c r="U6" t="n">
-        <v>5.483</v>
+        <v>2.941</v>
       </c>
       <c r="V6" t="n">
-        <v>0.147</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.246</v>
+        <v>0.1</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.196</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1049,73 +1050,73 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>348170.031</v>
+        <v>442703.969</v>
       </c>
       <c r="F7" t="n">
-        <v>209.736</v>
+        <v>5.279</v>
       </c>
       <c r="G7" t="n">
-        <v>1588.306</v>
+        <v>194.079</v>
       </c>
       <c r="H7" t="n">
-        <v>2084.825</v>
+        <v>297.617</v>
       </c>
       <c r="I7" t="n">
-        <v>2624.09</v>
+        <v>403.665</v>
       </c>
       <c r="J7" t="n">
-        <v>2985.44</v>
+        <v>479.669</v>
       </c>
       <c r="K7" t="n">
-        <v>3271.506</v>
+        <v>594.245</v>
       </c>
       <c r="L7" t="n">
-        <v>3713.66</v>
+        <v>685.698</v>
       </c>
       <c r="M7" t="n">
-        <v>3916.93</v>
+        <v>790.204</v>
       </c>
       <c r="N7" t="n">
-        <v>0.867</v>
+        <v>0.018</v>
       </c>
       <c r="O7" t="n">
-        <v>9.196999999999999</v>
+        <v>2.129</v>
       </c>
       <c r="P7" t="n">
-        <v>14.521</v>
+        <v>2.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.838</v>
+        <v>3.865</v>
       </c>
       <c r="R7" t="n">
-        <v>29.223</v>
+        <v>4.645</v>
       </c>
       <c r="S7" t="n">
-        <v>40.121</v>
+        <v>5.867</v>
       </c>
       <c r="T7" t="n">
-        <v>63.385</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="U7" t="n">
-        <v>89.242</v>
+        <v>10.86</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>0.296</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.073</v>
+        <v>0.589</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.346</v>
+        <v>0.443</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1140,73 +1141,73 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>399356.844</v>
+        <v>525414.562</v>
       </c>
       <c r="F8" t="n">
-        <v>4724.896</v>
+        <v>1058.399</v>
       </c>
       <c r="G8" t="n">
-        <v>8697.013999999999</v>
+        <v>2826.229</v>
       </c>
       <c r="H8" t="n">
-        <v>14802.767</v>
+        <v>7809.796</v>
       </c>
       <c r="I8" t="n">
-        <v>22154.031</v>
+        <v>14452.431</v>
       </c>
       <c r="J8" t="n">
-        <v>27651.432</v>
+        <v>20095.457</v>
       </c>
       <c r="K8" t="n">
-        <v>44781.656</v>
+        <v>34658.289</v>
       </c>
       <c r="L8" t="n">
-        <v>83852.734</v>
+        <v>73595.461</v>
       </c>
       <c r="M8" t="n">
-        <v>104287.438</v>
+        <v>95711.32799999999</v>
       </c>
       <c r="N8" t="n">
-        <v>56.121</v>
+        <v>28.952</v>
       </c>
       <c r="O8" t="n">
-        <v>149.229</v>
+        <v>110.995</v>
       </c>
       <c r="P8" t="n">
-        <v>345.526</v>
+        <v>244.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>694.609</v>
+        <v>450.653</v>
       </c>
       <c r="R8" t="n">
-        <v>1076.731</v>
+        <v>623.723</v>
       </c>
       <c r="S8" t="n">
-        <v>1508.044</v>
+        <v>822.525</v>
       </c>
       <c r="T8" t="n">
-        <v>2131.478</v>
+        <v>1161.626</v>
       </c>
       <c r="U8" t="n">
-        <v>2660.1</v>
+        <v>1454.017</v>
       </c>
       <c r="V8" t="n">
-        <v>45.085</v>
+        <v>28.484</v>
       </c>
       <c r="W8" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="X8" t="n">
-        <v>80.40000000000001</v>
+        <v>52.125</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Z8" t="n">
-        <v>62.742</v>
+        <v>40.304</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="9">
@@ -1231,73 +1232,73 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>576169.5</v>
+        <v>762472.625</v>
       </c>
       <c r="F9" t="n">
-        <v>139.344</v>
+        <v>10.333</v>
       </c>
       <c r="G9" t="n">
-        <v>1970.211</v>
+        <v>97.104</v>
       </c>
       <c r="H9" t="n">
-        <v>9817.873</v>
+        <v>283.187</v>
       </c>
       <c r="I9" t="n">
-        <v>16137.106</v>
+        <v>2016.524</v>
       </c>
       <c r="J9" t="n">
-        <v>19689.111</v>
+        <v>4374.994</v>
       </c>
       <c r="K9" t="n">
-        <v>24816.25</v>
+        <v>6314.192</v>
       </c>
       <c r="L9" t="n">
-        <v>30010.504</v>
+        <v>9398.924999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>33102.457</v>
+        <v>12235.867</v>
       </c>
       <c r="N9" t="n">
-        <v>0.615</v>
+        <v>0.065</v>
       </c>
       <c r="O9" t="n">
-        <v>7.746</v>
+        <v>0.405</v>
       </c>
       <c r="P9" t="n">
-        <v>39.985</v>
+        <v>1.207</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.637</v>
+        <v>6.501</v>
       </c>
       <c r="R9" t="n">
-        <v>146.377</v>
+        <v>14.498</v>
       </c>
       <c r="S9" t="n">
-        <v>232.775</v>
+        <v>23.466</v>
       </c>
       <c r="T9" t="n">
-        <v>355.188</v>
+        <v>40.231</v>
       </c>
       <c r="U9" t="n">
-        <v>450.795</v>
+        <v>57.422</v>
       </c>
       <c r="V9" t="n">
-        <v>4.761</v>
+        <v>0.368</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>9.547000000000001</v>
+        <v>0.736</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.154</v>
+        <v>0.552</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1322,73 +1323,73 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>453236.469</v>
+        <v>584573.125</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>22.514</v>
       </c>
       <c r="G10" t="n">
-        <v>1342.708</v>
+        <v>406.569</v>
       </c>
       <c r="H10" t="n">
-        <v>2456.344</v>
+        <v>617.345</v>
       </c>
       <c r="I10" t="n">
-        <v>3032.825</v>
+        <v>991.063</v>
       </c>
       <c r="J10" t="n">
-        <v>3257.485</v>
+        <v>1138.994</v>
       </c>
       <c r="K10" t="n">
-        <v>3567.148</v>
+        <v>1229.384</v>
       </c>
       <c r="L10" t="n">
-        <v>3987.626</v>
+        <v>1365.845</v>
       </c>
       <c r="M10" t="n">
-        <v>4364.666</v>
+        <v>1789.952</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.037</v>
       </c>
       <c r="O10" t="n">
-        <v>11.195</v>
+        <v>5.955</v>
       </c>
       <c r="P10" t="n">
-        <v>24.121</v>
+        <v>12.862</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.142</v>
+        <v>24.87</v>
       </c>
       <c r="R10" t="n">
-        <v>46.49</v>
+        <v>29.154</v>
       </c>
       <c r="S10" t="n">
-        <v>58.424</v>
+        <v>32.735</v>
       </c>
       <c r="T10" t="n">
-        <v>78.898</v>
+        <v>41.732</v>
       </c>
       <c r="U10" t="n">
-        <v>97.45999999999999</v>
+        <v>52.651</v>
       </c>
       <c r="V10" t="n">
-        <v>2.259</v>
+        <v>1.374</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>4.591</v>
+        <v>2.618</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>3.425</v>
+        <v>1.996</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1413,70 +1414,70 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>166596.797</v>
+        <v>209779.562</v>
       </c>
       <c r="F11" t="n">
-        <v>10.014</v>
+        <v>3.103</v>
       </c>
       <c r="G11" t="n">
-        <v>60.605</v>
+        <v>5.024</v>
       </c>
       <c r="H11" t="n">
-        <v>71.012</v>
+        <v>26.075</v>
       </c>
       <c r="I11" t="n">
-        <v>71.012</v>
+        <v>63.983</v>
       </c>
       <c r="J11" t="n">
-        <v>91.512</v>
+        <v>79.179</v>
       </c>
       <c r="K11" t="n">
-        <v>147.598</v>
+        <v>112.268</v>
       </c>
       <c r="L11" t="n">
-        <v>347.204</v>
+        <v>293.481</v>
       </c>
       <c r="M11" t="n">
-        <v>676.836</v>
+        <v>416.359</v>
       </c>
       <c r="N11" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.312</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
         <v>0.028</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.482</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.774</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.452</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4.175</v>
-      </c>
-      <c r="U11" t="n">
-        <v>6.402</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.137</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -1504,73 +1505,73 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>242780.906</v>
+        <v>309133.125</v>
       </c>
       <c r="F12" t="n">
-        <v>768.769</v>
+        <v>365.742</v>
       </c>
       <c r="G12" t="n">
-        <v>1539.743</v>
+        <v>444.08</v>
       </c>
       <c r="H12" t="n">
-        <v>1777.229</v>
+        <v>510.346</v>
       </c>
       <c r="I12" t="n">
-        <v>1953.324</v>
+        <v>536.508</v>
       </c>
       <c r="J12" t="n">
-        <v>2126.323</v>
+        <v>602.756</v>
       </c>
       <c r="K12" t="n">
-        <v>2226.57</v>
+        <v>630.669</v>
       </c>
       <c r="L12" t="n">
-        <v>2337.151</v>
+        <v>712.903</v>
       </c>
       <c r="M12" t="n">
-        <v>2476.036</v>
+        <v>781.072</v>
       </c>
       <c r="N12" t="n">
-        <v>215.187</v>
+        <v>90.176</v>
       </c>
       <c r="O12" t="n">
-        <v>356.307</v>
+        <v>110.797</v>
       </c>
       <c r="P12" t="n">
-        <v>453.736</v>
+        <v>128.808</v>
       </c>
       <c r="Q12" t="n">
-        <v>581.155</v>
+        <v>145.616</v>
       </c>
       <c r="R12" t="n">
-        <v>637.941</v>
+        <v>154.962</v>
       </c>
       <c r="S12" t="n">
-        <v>700.071</v>
+        <v>164.533</v>
       </c>
       <c r="T12" t="n">
-        <v>800.79</v>
+        <v>179.664</v>
       </c>
       <c r="U12" t="n">
-        <v>892.022</v>
+        <v>197.961</v>
       </c>
       <c r="V12" t="n">
-        <v>65.73999999999999</v>
+        <v>21.524</v>
       </c>
       <c r="W12" t="n">
-        <v>0.027</v>
+        <v>0.007</v>
       </c>
       <c r="X12" t="n">
-        <v>88.926</v>
+        <v>24.998</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.037</v>
+        <v>0.008</v>
       </c>
       <c r="Z12" t="n">
-        <v>77.333</v>
+        <v>23.261</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.032</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="13">
@@ -1595,70 +1596,70 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>435818.375</v>
+        <v>549233.188</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>11.592</v>
       </c>
       <c r="H13" t="n">
-        <v>402.071</v>
+        <v>15.178</v>
       </c>
       <c r="I13" t="n">
-        <v>602.409</v>
+        <v>19.955</v>
       </c>
       <c r="J13" t="n">
-        <v>1454.572</v>
+        <v>26.047</v>
       </c>
       <c r="K13" t="n">
-        <v>2082.844</v>
+        <v>45.569</v>
       </c>
       <c r="L13" t="n">
-        <v>2588.906</v>
+        <v>80.334</v>
       </c>
       <c r="M13" t="n">
-        <v>3029.418</v>
+        <v>96.626</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.118</v>
       </c>
       <c r="P13" t="n">
-        <v>1.193</v>
+        <v>0.145</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.392</v>
+        <v>0.163</v>
       </c>
       <c r="R13" t="n">
-        <v>5.565</v>
+        <v>0.206</v>
       </c>
       <c r="S13" t="n">
-        <v>10.263</v>
+        <v>0.343</v>
       </c>
       <c r="T13" t="n">
-        <v>16.196</v>
+        <v>0.573</v>
       </c>
       <c r="U13" t="n">
-        <v>20.596</v>
+        <v>0.758</v>
       </c>
       <c r="V13" t="n">
-        <v>0.155</v>
+        <v>0.024</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.308</v>
+        <v>0.03</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.231</v>
+        <v>0.027</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1686,73 +1687,73 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>483267.875</v>
+        <v>653512.625</v>
       </c>
       <c r="F14" t="n">
-        <v>973.374</v>
+        <v>381.069</v>
       </c>
       <c r="G14" t="n">
-        <v>2265.005</v>
+        <v>1110.702</v>
       </c>
       <c r="H14" t="n">
-        <v>4000.162</v>
+        <v>2447.729</v>
       </c>
       <c r="I14" t="n">
-        <v>10673.75</v>
+        <v>6240.071</v>
       </c>
       <c r="J14" t="n">
-        <v>16192.905</v>
+        <v>10306.491</v>
       </c>
       <c r="K14" t="n">
-        <v>21321</v>
+        <v>15241.479</v>
       </c>
       <c r="L14" t="n">
-        <v>26900.559</v>
+        <v>21911.363</v>
       </c>
       <c r="M14" t="n">
-        <v>31216.99</v>
+        <v>27450.902</v>
       </c>
       <c r="N14" t="n">
-        <v>3.659</v>
+        <v>1.249</v>
       </c>
       <c r="O14" t="n">
-        <v>30.1</v>
+        <v>8.497999999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>131.666</v>
+        <v>46.739</v>
       </c>
       <c r="Q14" t="n">
-        <v>265.582</v>
+        <v>87.25</v>
       </c>
       <c r="R14" t="n">
-        <v>325.498</v>
+        <v>112.496</v>
       </c>
       <c r="S14" t="n">
-        <v>376.58</v>
+        <v>140.015</v>
       </c>
       <c r="T14" t="n">
-        <v>447.78</v>
+        <v>185.859</v>
       </c>
       <c r="U14" t="n">
-        <v>513.093</v>
+        <v>232.651</v>
       </c>
       <c r="V14" t="n">
-        <v>12.195</v>
+        <v>4.226</v>
       </c>
       <c r="W14" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="X14" t="n">
-        <v>24.555</v>
+        <v>8.42</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.375</v>
+        <v>6.323</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="15">
@@ -1777,70 +1778,70 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>511393.031</v>
+        <v>641817.188</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>130.288</v>
+        <v>40.719</v>
       </c>
       <c r="H15" t="n">
-        <v>643.697</v>
+        <v>150.577</v>
       </c>
       <c r="I15" t="n">
-        <v>1164.257</v>
+        <v>450.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3809.34</v>
+        <v>4370.754</v>
       </c>
       <c r="K15" t="n">
-        <v>7886.373</v>
+        <v>10432.429</v>
       </c>
       <c r="L15" t="n">
-        <v>15806.404</v>
+        <v>16303.761</v>
       </c>
       <c r="M15" t="n">
-        <v>21303.703</v>
+        <v>22702.938</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.329</v>
+        <v>0.124</v>
       </c>
       <c r="P15" t="n">
-        <v>1.857</v>
+        <v>0.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.077</v>
+        <v>1.752</v>
       </c>
       <c r="R15" t="n">
-        <v>11.903</v>
+        <v>12.879</v>
       </c>
       <c r="S15" t="n">
-        <v>26.83</v>
+        <v>35.213</v>
       </c>
       <c r="T15" t="n">
-        <v>64.377</v>
+        <v>73.145</v>
       </c>
       <c r="U15" t="n">
-        <v>109.16</v>
+        <v>121.022</v>
       </c>
       <c r="V15" t="n">
-        <v>0.427</v>
+        <v>0.404</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0.804</v>
+        <v>0.738</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.615</v>
+        <v>0.571</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -1868,70 +1869,70 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>613948.75</v>
+        <v>789903.25</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.004</v>
       </c>
       <c r="G16" t="n">
-        <v>390.14</v>
+        <v>121.812</v>
       </c>
       <c r="H16" t="n">
-        <v>1180.488</v>
+        <v>374.431</v>
       </c>
       <c r="I16" t="n">
-        <v>1763.764</v>
+        <v>592.521</v>
       </c>
       <c r="J16" t="n">
-        <v>2207.005</v>
+        <v>833.25</v>
       </c>
       <c r="K16" t="n">
-        <v>2584.999</v>
+        <v>996.918</v>
       </c>
       <c r="L16" t="n">
-        <v>3260.42</v>
+        <v>1220.435</v>
       </c>
       <c r="M16" t="n">
-        <v>4044.05</v>
+        <v>1455.537</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O16" t="n">
-        <v>1.077</v>
+        <v>0.316</v>
       </c>
       <c r="P16" t="n">
-        <v>3.329</v>
+        <v>1.051</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.409</v>
+        <v>1.812</v>
       </c>
       <c r="R16" t="n">
-        <v>7.059</v>
+        <v>2.6</v>
       </c>
       <c r="S16" t="n">
-        <v>8.590999999999999</v>
+        <v>3.278</v>
       </c>
       <c r="T16" t="n">
-        <v>11.263</v>
+        <v>4.247</v>
       </c>
       <c r="U16" t="n">
-        <v>14.216</v>
+        <v>5.24</v>
       </c>
       <c r="V16" t="n">
-        <v>0.294</v>
+        <v>0.098</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0.598</v>
+        <v>0.199</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.446</v>
+        <v>0.149</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -1959,70 +1960,70 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>857626.188</v>
+        <v>1120521.75</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>134.221</v>
+        <v>2.137</v>
       </c>
       <c r="H17" t="n">
-        <v>1671.308</v>
+        <v>1156.181</v>
       </c>
       <c r="I17" t="n">
-        <v>2648.896</v>
+        <v>1996.89</v>
       </c>
       <c r="J17" t="n">
-        <v>3159.483</v>
+        <v>2469.414</v>
       </c>
       <c r="K17" t="n">
-        <v>3844.078</v>
+        <v>2873.372</v>
       </c>
       <c r="L17" t="n">
-        <v>4557.671</v>
+        <v>3488.471</v>
       </c>
       <c r="M17" t="n">
-        <v>5109.138</v>
+        <v>3966.885</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.322</v>
+        <v>0.005</v>
       </c>
       <c r="P17" t="n">
-        <v>4.615</v>
+        <v>3.087</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.161</v>
+        <v>5.878</v>
       </c>
       <c r="R17" t="n">
-        <v>10.35</v>
+        <v>7.619</v>
       </c>
       <c r="S17" t="n">
-        <v>12.947</v>
+        <v>9.18</v>
       </c>
       <c r="T17" t="n">
-        <v>16.322</v>
+        <v>11.516</v>
       </c>
       <c r="U17" t="n">
-        <v>19.125</v>
+        <v>13.471</v>
       </c>
       <c r="V17" t="n">
-        <v>0.362</v>
+        <v>0.242</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.744</v>
+        <v>0.501</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.553</v>
+        <v>0.372</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
@@ -2050,70 +2051,70 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1016343.688</v>
+        <v>1319084.75</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.056</v>
       </c>
       <c r="G18" t="n">
-        <v>118.895</v>
+        <v>22.102</v>
       </c>
       <c r="H18" t="n">
-        <v>249.757</v>
+        <v>24.233</v>
       </c>
       <c r="I18" t="n">
-        <v>380.754</v>
+        <v>38.114</v>
       </c>
       <c r="J18" t="n">
-        <v>428.411</v>
+        <v>45.271</v>
       </c>
       <c r="K18" t="n">
-        <v>495.464</v>
+        <v>58.818</v>
       </c>
       <c r="L18" t="n">
-        <v>495.464</v>
+        <v>98.455</v>
       </c>
       <c r="M18" t="n">
-        <v>543.515</v>
+        <v>133.22</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.576</v>
+        <v>0.092</v>
       </c>
       <c r="P18" t="n">
-        <v>1.262</v>
+        <v>0.132</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.012</v>
+        <v>0.232</v>
       </c>
       <c r="R18" t="n">
-        <v>2.733</v>
+        <v>0.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.82</v>
+        <v>0.509</v>
       </c>
       <c r="T18" t="n">
-        <v>5.717</v>
+        <v>0.874</v>
       </c>
       <c r="U18" t="n">
-        <v>8.053000000000001</v>
+        <v>1.293</v>
       </c>
       <c r="V18" t="n">
-        <v>0.126</v>
+        <v>0.016</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.253</v>
+        <v>0.033</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.189</v>
+        <v>0.024</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -2141,70 +2142,70 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>454000.188</v>
+        <v>577509</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>19.643</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>53.669</v>
       </c>
       <c r="H19" t="n">
-        <v>86.89400000000001</v>
+        <v>82.126</v>
       </c>
       <c r="I19" t="n">
-        <v>2163.29</v>
+        <v>439.767</v>
       </c>
       <c r="J19" t="n">
-        <v>5246.254</v>
+        <v>1644.229</v>
       </c>
       <c r="K19" t="n">
-        <v>7496.96</v>
+        <v>2886.989</v>
       </c>
       <c r="L19" t="n">
-        <v>9708.886</v>
+        <v>4276.882</v>
       </c>
       <c r="M19" t="n">
-        <v>11117.731</v>
+        <v>5194.092</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.206</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3.184</v>
       </c>
       <c r="P19" t="n">
-        <v>0.216</v>
+        <v>4.636</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.566</v>
+        <v>6.734</v>
       </c>
       <c r="R19" t="n">
-        <v>14.257</v>
+        <v>10.72</v>
       </c>
       <c r="S19" t="n">
-        <v>21.766</v>
+        <v>16.245</v>
       </c>
       <c r="T19" t="n">
-        <v>30.231</v>
+        <v>23.85</v>
       </c>
       <c r="U19" t="n">
-        <v>36.216</v>
+        <v>28.918</v>
       </c>
       <c r="V19" t="n">
-        <v>0.265</v>
+        <v>0.641</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.556</v>
+        <v>1.041</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.411</v>
+        <v>0.841</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -2232,73 +2233,73 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>218253.312</v>
+        <v>276776.75</v>
       </c>
       <c r="F20" t="n">
-        <v>855.7329999999999</v>
+        <v>120.129</v>
       </c>
       <c r="G20" t="n">
-        <v>1393.901</v>
+        <v>169.018</v>
       </c>
       <c r="H20" t="n">
-        <v>1519.14</v>
+        <v>196.118</v>
       </c>
       <c r="I20" t="n">
-        <v>1622.044</v>
+        <v>219.37</v>
       </c>
       <c r="J20" t="n">
-        <v>1884.07</v>
+        <v>241.444</v>
       </c>
       <c r="K20" t="n">
-        <v>1991.128</v>
+        <v>278.176</v>
       </c>
       <c r="L20" t="n">
-        <v>2142.033</v>
+        <v>309.514</v>
       </c>
       <c r="M20" t="n">
-        <v>2276.429</v>
+        <v>350.297</v>
       </c>
       <c r="N20" t="n">
-        <v>9.359999999999999</v>
+        <v>3.153</v>
       </c>
       <c r="O20" t="n">
-        <v>24.245</v>
+        <v>6.662</v>
       </c>
       <c r="P20" t="n">
-        <v>40.82</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>85.16200000000001</v>
+        <v>10.376</v>
       </c>
       <c r="R20" t="n">
-        <v>111.587</v>
+        <v>12.333</v>
       </c>
       <c r="S20" t="n">
-        <v>130.441</v>
+        <v>15.008</v>
       </c>
       <c r="T20" t="n">
-        <v>172.808</v>
+        <v>21.527</v>
       </c>
       <c r="U20" t="n">
-        <v>202.532</v>
+        <v>26.152</v>
       </c>
       <c r="V20" t="n">
-        <v>5.549</v>
+        <v>1.156</v>
       </c>
       <c r="W20" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>9.509</v>
+        <v>1.682</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.529</v>
+        <v>1.419</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="21">
@@ -2323,70 +2324,70 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>771870.375</v>
+        <v>995774.875</v>
       </c>
       <c r="F21" t="n">
-        <v>633.5359999999999</v>
+        <v>284.693</v>
       </c>
       <c r="G21" t="n">
-        <v>1925.927</v>
+        <v>622.498</v>
       </c>
       <c r="H21" t="n">
-        <v>2661.325</v>
+        <v>772.431</v>
       </c>
       <c r="I21" t="n">
-        <v>3918.753</v>
+        <v>1109.884</v>
       </c>
       <c r="J21" t="n">
-        <v>5059.614</v>
+        <v>1753.078</v>
       </c>
       <c r="K21" t="n">
-        <v>6781.344</v>
+        <v>2769.119</v>
       </c>
       <c r="L21" t="n">
-        <v>8889.735000000001</v>
+        <v>4172.109</v>
       </c>
       <c r="M21" t="n">
-        <v>10628.961</v>
+        <v>5371.327</v>
       </c>
       <c r="N21" t="n">
-        <v>1.96</v>
+        <v>0.888</v>
       </c>
       <c r="O21" t="n">
-        <v>9.686</v>
+        <v>2.471</v>
       </c>
       <c r="P21" t="n">
-        <v>15.195</v>
+        <v>3.367</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.519</v>
+        <v>4.509</v>
       </c>
       <c r="R21" t="n">
-        <v>24.102</v>
+        <v>6.504</v>
       </c>
       <c r="S21" t="n">
-        <v>32.207</v>
+        <v>9.737</v>
       </c>
       <c r="T21" t="n">
-        <v>45.701</v>
+        <v>14.995</v>
       </c>
       <c r="U21" t="n">
-        <v>58.338</v>
+        <v>19.926</v>
       </c>
       <c r="V21" t="n">
-        <v>1.652</v>
+        <v>0.455</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>2.911</v>
+        <v>0.729</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.282</v>
+        <v>0.592</v>
       </c>
       <c r="AA21" t="n">
         <v>0</v>
@@ -2414,70 +2415,70 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>154263.688</v>
+        <v>191203.547</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>18.707</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>60.185</v>
       </c>
       <c r="H22" t="n">
-        <v>154.12</v>
+        <v>97.551</v>
       </c>
       <c r="I22" t="n">
-        <v>349.503</v>
+        <v>133.921</v>
       </c>
       <c r="J22" t="n">
-        <v>384.148</v>
+        <v>158.141</v>
       </c>
       <c r="K22" t="n">
-        <v>427.197</v>
+        <v>170.067</v>
       </c>
       <c r="L22" t="n">
-        <v>444.593</v>
+        <v>196.441</v>
       </c>
       <c r="M22" t="n">
-        <v>453.287</v>
+        <v>211.29</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="P22" t="n">
-        <v>0.386</v>
+        <v>0.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.962</v>
+        <v>0.653</v>
       </c>
       <c r="R22" t="n">
-        <v>1.169</v>
+        <v>0.844</v>
       </c>
       <c r="S22" t="n">
-        <v>1.424</v>
+        <v>1.032</v>
       </c>
       <c r="T22" t="n">
-        <v>1.727</v>
+        <v>1.35</v>
       </c>
       <c r="U22" t="n">
-        <v>2.017</v>
+        <v>1.642</v>
       </c>
       <c r="V22" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.074</v>
+        <v>0.089</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.055</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -2505,73 +2506,73 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>115370.992</v>
+        <v>148491.156</v>
       </c>
       <c r="F23" t="n">
-        <v>64.486</v>
+        <v>0.741</v>
       </c>
       <c r="G23" t="n">
-        <v>141.743</v>
+        <v>12.806</v>
       </c>
       <c r="H23" t="n">
-        <v>197.754</v>
+        <v>15.988</v>
       </c>
       <c r="I23" t="n">
-        <v>331.441</v>
+        <v>31.58</v>
       </c>
       <c r="J23" t="n">
-        <v>492.852</v>
+        <v>48.967</v>
       </c>
       <c r="K23" t="n">
-        <v>651.133</v>
+        <v>66.777</v>
       </c>
       <c r="L23" t="n">
-        <v>965.317</v>
+        <v>101.146</v>
       </c>
       <c r="M23" t="n">
-        <v>1148.787</v>
+        <v>112.71</v>
       </c>
       <c r="N23" t="n">
-        <v>10.831</v>
+        <v>0.007</v>
       </c>
       <c r="O23" t="n">
-        <v>24.706</v>
+        <v>0.305</v>
       </c>
       <c r="P23" t="n">
-        <v>26.056</v>
+        <v>0.365</v>
       </c>
       <c r="Q23" t="n">
-        <v>29.1</v>
+        <v>0.549</v>
       </c>
       <c r="R23" t="n">
-        <v>46.917</v>
+        <v>6.565</v>
       </c>
       <c r="S23" t="n">
-        <v>49.224</v>
+        <v>6.979</v>
       </c>
       <c r="T23" t="n">
-        <v>52.93</v>
+        <v>10.72</v>
       </c>
       <c r="U23" t="n">
-        <v>56.044</v>
+        <v>11.517</v>
       </c>
       <c r="V23" t="n">
-        <v>3.882</v>
+        <v>0.108</v>
       </c>
       <c r="W23" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>5.577</v>
+        <v>0.209</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>4.729</v>
+        <v>0.159</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2596,70 +2597,70 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1004208.5</v>
+        <v>1327579.5</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>73.15000000000001</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>681.357</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1906.252</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2594.958</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>3162.279</v>
+        <v>57.217</v>
       </c>
       <c r="L24" t="n">
-        <v>4237.018</v>
+        <v>396.917</v>
       </c>
       <c r="M24" t="n">
-        <v>5058.421</v>
+        <v>847.005</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0.231</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.782</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.998</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.852</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>11.798</v>
+        <v>0.147</v>
       </c>
       <c r="T24" t="n">
-        <v>17.063</v>
+        <v>1.083</v>
       </c>
       <c r="U24" t="n">
-        <v>21.488</v>
+        <v>2.329</v>
       </c>
       <c r="V24" t="n">
-        <v>0.243</v>
+        <v>0.004</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.512</v>
+        <v>0.006</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.378</v>
+        <v>0.005</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -2687,73 +2688,73 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>197465.562</v>
+        <v>251973.797</v>
       </c>
       <c r="F25" t="n">
-        <v>274.247</v>
+        <v>69.84399999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>530.038</v>
+        <v>109.654</v>
       </c>
       <c r="H25" t="n">
-        <v>677.967</v>
+        <v>187.029</v>
       </c>
       <c r="I25" t="n">
-        <v>677.967</v>
+        <v>236.168</v>
       </c>
       <c r="J25" t="n">
-        <v>733.639</v>
+        <v>239.077</v>
       </c>
       <c r="K25" t="n">
-        <v>763.657</v>
+        <v>250.348</v>
       </c>
       <c r="L25" t="n">
-        <v>874.39</v>
+        <v>323.164</v>
       </c>
       <c r="M25" t="n">
-        <v>884.622</v>
+        <v>394.228</v>
       </c>
       <c r="N25" t="n">
-        <v>10.597</v>
+        <v>3.16</v>
       </c>
       <c r="O25" t="n">
-        <v>39.298</v>
+        <v>8.122999999999999</v>
       </c>
       <c r="P25" t="n">
-        <v>61.071</v>
+        <v>15.327</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.426</v>
+        <v>23.52</v>
       </c>
       <c r="R25" t="n">
-        <v>135.12</v>
+        <v>28.914</v>
       </c>
       <c r="S25" t="n">
-        <v>165.585</v>
+        <v>33.474</v>
       </c>
       <c r="T25" t="n">
-        <v>206.462</v>
+        <v>40.373</v>
       </c>
       <c r="U25" t="n">
-        <v>237.783</v>
+        <v>46.571</v>
       </c>
       <c r="V25" t="n">
-        <v>7.478</v>
+        <v>1.749</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="X25" t="n">
-        <v>13.032</v>
+        <v>2.908</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="Z25" t="n">
-        <v>10.255</v>
+        <v>2.329</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
   </sheetData>
@@ -2934,70 +2935,70 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7193.84</v>
+        <v>44526548</v>
       </c>
       <c r="F2" t="n">
-        <v>0.133</v>
+        <v>1550</v>
       </c>
       <c r="G2" t="n">
-        <v>0.906</v>
+        <v>13613</v>
       </c>
       <c r="H2" t="n">
-        <v>14.055</v>
+        <v>86431</v>
       </c>
       <c r="I2" t="n">
-        <v>17.486</v>
+        <v>111207</v>
       </c>
       <c r="J2" t="n">
-        <v>20.753</v>
+        <v>125824</v>
       </c>
       <c r="K2" t="n">
-        <v>22.035</v>
+        <v>134307</v>
       </c>
       <c r="L2" t="n">
-        <v>32</v>
+        <v>214885</v>
       </c>
       <c r="M2" t="n">
-        <v>51.204</v>
+        <v>330363</v>
       </c>
       <c r="N2" t="n">
-        <v>0.032</v>
+        <v>322.027</v>
       </c>
       <c r="O2" t="n">
-        <v>0.149</v>
+        <v>1884.138</v>
       </c>
       <c r="P2" t="n">
-        <v>1.601</v>
+        <v>10377.317</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.519</v>
+        <v>16740.288</v>
       </c>
       <c r="R2" t="n">
-        <v>3.171</v>
+        <v>20606.819</v>
       </c>
       <c r="S2" t="n">
-        <v>3.443</v>
+        <v>22609.161</v>
       </c>
       <c r="T2" t="n">
-        <v>4.8</v>
+        <v>33782.13</v>
       </c>
       <c r="U2" t="n">
-        <v>7.849</v>
+        <v>52672.266</v>
       </c>
       <c r="V2" t="n">
-        <v>0.123</v>
+        <v>862.448</v>
       </c>
       <c r="W2" t="n">
         <v>0.002</v>
       </c>
       <c r="X2" t="n">
-        <v>0.242</v>
+        <v>1682.621</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.182</v>
+        <v>1272.534</v>
       </c>
       <c r="AA2" t="n">
         <v>0.003</v>
@@ -3025,73 +3026,73 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4839.886</v>
+        <v>35553652</v>
       </c>
       <c r="F3" t="n">
-        <v>0.153</v>
+        <v>3038</v>
       </c>
       <c r="G3" t="n">
-        <v>20.18</v>
+        <v>132778</v>
       </c>
       <c r="H3" t="n">
-        <v>38.376</v>
+        <v>258831</v>
       </c>
       <c r="I3" t="n">
-        <v>54.286</v>
+        <v>360495</v>
       </c>
       <c r="J3" t="n">
-        <v>75.063</v>
+        <v>480916</v>
       </c>
       <c r="K3" t="n">
-        <v>108.749</v>
+        <v>712662</v>
       </c>
       <c r="L3" t="n">
-        <v>150.424</v>
+        <v>943457</v>
       </c>
       <c r="M3" t="n">
-        <v>169.361</v>
+        <v>1059188</v>
       </c>
       <c r="N3" t="n">
-        <v>0.098</v>
+        <v>1498.649</v>
       </c>
       <c r="O3" t="n">
-        <v>4.329</v>
+        <v>27406.954</v>
       </c>
       <c r="P3" t="n">
-        <v>11.561</v>
+        <v>75578.118</v>
       </c>
       <c r="Q3" t="n">
-        <v>18.651</v>
+        <v>124077.374</v>
       </c>
       <c r="R3" t="n">
-        <v>25.271</v>
+        <v>165662.784</v>
       </c>
       <c r="S3" t="n">
-        <v>34.89</v>
+        <v>229845.098</v>
       </c>
       <c r="T3" t="n">
-        <v>51.1</v>
+        <v>331134.555</v>
       </c>
       <c r="U3" t="n">
-        <v>63.722</v>
+        <v>411188.472</v>
       </c>
       <c r="V3" t="n">
-        <v>1.105</v>
+        <v>7288.502</v>
       </c>
       <c r="W3" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="X3" t="n">
-        <v>2.215</v>
+        <v>14452.368</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.66</v>
+        <v>10870.435</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="4">
@@ -3116,73 +3117,73 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8359.1</v>
+        <v>53850880</v>
       </c>
       <c r="F4" t="n">
-        <v>9.718</v>
+        <v>73479</v>
       </c>
       <c r="G4" t="n">
-        <v>38.949</v>
+        <v>241048</v>
       </c>
       <c r="H4" t="n">
-        <v>95.65900000000001</v>
+        <v>605994</v>
       </c>
       <c r="I4" t="n">
-        <v>189.741</v>
+        <v>1094547</v>
       </c>
       <c r="J4" t="n">
-        <v>297.475</v>
+        <v>1788485</v>
       </c>
       <c r="K4" t="n">
-        <v>394.078</v>
+        <v>2494040</v>
       </c>
       <c r="L4" t="n">
-        <v>559.745</v>
+        <v>3568998</v>
       </c>
       <c r="M4" t="n">
-        <v>705.494</v>
+        <v>4451511</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>16977.696</v>
       </c>
       <c r="O4" t="n">
-        <v>6.616</v>
+        <v>44565.291</v>
       </c>
       <c r="P4" t="n">
-        <v>16.739</v>
+        <v>108031.47</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.144</v>
+        <v>220250.223</v>
       </c>
       <c r="R4" t="n">
-        <v>60.094</v>
+        <v>356894.42</v>
       </c>
       <c r="S4" t="n">
-        <v>83.44499999999999</v>
+        <v>510639.408</v>
       </c>
       <c r="T4" t="n">
-        <v>120.055</v>
+        <v>745608.495</v>
       </c>
       <c r="U4" t="n">
-        <v>153.638</v>
+        <v>957465.943</v>
       </c>
       <c r="V4" t="n">
-        <v>2.261</v>
+        <v>14388.945</v>
       </c>
       <c r="W4" t="n">
         <v>0.027</v>
       </c>
       <c r="X4" t="n">
-        <v>4.145</v>
+        <v>25782.042</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.203</v>
+        <v>20085.494</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="5">
@@ -3207,73 +3208,73 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8686.933000000001</v>
+        <v>59874040</v>
       </c>
       <c r="F5" t="n">
-        <v>11.439</v>
+        <v>76377</v>
       </c>
       <c r="G5" t="n">
-        <v>23.075</v>
+        <v>180132</v>
       </c>
       <c r="H5" t="n">
-        <v>43.282</v>
+        <v>335859</v>
       </c>
       <c r="I5" t="n">
-        <v>78.125</v>
+        <v>552927</v>
       </c>
       <c r="J5" t="n">
-        <v>111.455</v>
+        <v>833398</v>
       </c>
       <c r="K5" t="n">
-        <v>144.8</v>
+        <v>1032314</v>
       </c>
       <c r="L5" t="n">
-        <v>196.369</v>
+        <v>1416228</v>
       </c>
       <c r="M5" t="n">
-        <v>232.349</v>
+        <v>1686998</v>
       </c>
       <c r="N5" t="n">
-        <v>1.246</v>
+        <v>9539.835999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>3.045</v>
+        <v>25042.282</v>
       </c>
       <c r="P5" t="n">
-        <v>5.895</v>
+        <v>47736.966</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.335</v>
+        <v>85141.17999999999</v>
       </c>
       <c r="R5" t="n">
-        <v>17.594</v>
+        <v>134383.574</v>
       </c>
       <c r="S5" t="n">
-        <v>25.383</v>
+        <v>187159.638</v>
       </c>
       <c r="T5" t="n">
-        <v>39.141</v>
+        <v>287748.367</v>
       </c>
       <c r="U5" t="n">
-        <v>51.322</v>
+        <v>376499.746</v>
       </c>
       <c r="V5" t="n">
-        <v>0.822</v>
+        <v>6387.263</v>
       </c>
       <c r="W5" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="X5" t="n">
-        <v>1.411</v>
+        <v>10964.691</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.116</v>
+        <v>8675.977000000001</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="6">
@@ -3298,70 +3299,70 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9332.557000000001</v>
+        <v>53917248</v>
       </c>
       <c r="F6" t="n">
-        <v>0.286</v>
+        <v>1696</v>
       </c>
       <c r="G6" t="n">
-        <v>0.42</v>
+        <v>4086</v>
       </c>
       <c r="H6" t="n">
-        <v>0.961</v>
+        <v>5417</v>
       </c>
       <c r="I6" t="n">
-        <v>1.541</v>
+        <v>12892</v>
       </c>
       <c r="J6" t="n">
-        <v>2.294</v>
+        <v>14300</v>
       </c>
       <c r="K6" t="n">
-        <v>2.643</v>
+        <v>16867</v>
       </c>
       <c r="L6" t="n">
-        <v>3.953</v>
+        <v>28155</v>
       </c>
       <c r="M6" t="n">
-        <v>5.761</v>
+        <v>37372</v>
       </c>
       <c r="N6" t="n">
-        <v>0.162</v>
+        <v>695.473</v>
       </c>
       <c r="O6" t="n">
-        <v>0.251</v>
+        <v>1109.025</v>
       </c>
       <c r="P6" t="n">
-        <v>0.382</v>
+        <v>1681.007</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.496</v>
+        <v>3032.605</v>
       </c>
       <c r="R6" t="n">
-        <v>0.725</v>
+        <v>4169.216</v>
       </c>
       <c r="S6" t="n">
-        <v>0.888</v>
+        <v>5165.378</v>
       </c>
       <c r="T6" t="n">
-        <v>1.425</v>
+        <v>7669.209</v>
       </c>
       <c r="U6" t="n">
-        <v>1.829</v>
+        <v>10207.551</v>
       </c>
       <c r="V6" t="n">
-        <v>0.055</v>
+        <v>259.974</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0.077</v>
+        <v>386.665</v>
       </c>
       <c r="Y6" t="n">
         <v>0.001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.066</v>
+        <v>323.32</v>
       </c>
       <c r="AA6" t="n">
         <v>0.001</v>
@@ -3389,73 +3390,73 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7122.507</v>
+        <v>42184392</v>
       </c>
       <c r="F7" t="n">
-        <v>0.059</v>
+        <v>566</v>
       </c>
       <c r="G7" t="n">
-        <v>4.263</v>
+        <v>19436</v>
       </c>
       <c r="H7" t="n">
-        <v>6.075</v>
+        <v>30470</v>
       </c>
       <c r="I7" t="n">
-        <v>7.776</v>
+        <v>42222</v>
       </c>
       <c r="J7" t="n">
-        <v>9.388</v>
+        <v>52155</v>
       </c>
       <c r="K7" t="n">
-        <v>11.624</v>
+        <v>65150</v>
       </c>
       <c r="L7" t="n">
-        <v>14.682</v>
+        <v>75853</v>
       </c>
       <c r="M7" t="n">
-        <v>16.596</v>
+        <v>92464</v>
       </c>
       <c r="N7" t="n">
-        <v>0.013</v>
+        <v>103.89</v>
       </c>
       <c r="O7" t="n">
-        <v>1.243</v>
+        <v>6588.912</v>
       </c>
       <c r="P7" t="n">
-        <v>1.681</v>
+        <v>9573.181</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.202</v>
+        <v>12476.537</v>
       </c>
       <c r="R7" t="n">
-        <v>2.788</v>
+        <v>15566.884</v>
       </c>
       <c r="S7" t="n">
-        <v>3.604</v>
+        <v>19823.59</v>
       </c>
       <c r="T7" t="n">
-        <v>5.18</v>
+        <v>26395.473</v>
       </c>
       <c r="U7" t="n">
-        <v>6.346</v>
+        <v>33315.694</v>
       </c>
       <c r="V7" t="n">
-        <v>0.172</v>
+        <v>948.812</v>
       </c>
       <c r="W7" t="n">
         <v>0.002</v>
       </c>
       <c r="X7" t="n">
-        <v>0.342</v>
+        <v>1879.135</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.257</v>
+        <v>1413.973</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="8">
@@ -3480,73 +3481,73 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6691.928</v>
+        <v>52044812</v>
       </c>
       <c r="F8" t="n">
-        <v>13.71</v>
+        <v>136456</v>
       </c>
       <c r="G8" t="n">
-        <v>42.506</v>
+        <v>325058</v>
       </c>
       <c r="H8" t="n">
-        <v>104.439</v>
+        <v>756960</v>
       </c>
       <c r="I8" t="n">
-        <v>192.784</v>
+        <v>1379767</v>
       </c>
       <c r="J8" t="n">
-        <v>282.039</v>
+        <v>1922689</v>
       </c>
       <c r="K8" t="n">
-        <v>458.141</v>
+        <v>3082710</v>
       </c>
       <c r="L8" t="n">
-        <v>863.4589999999999</v>
+        <v>5638715</v>
       </c>
       <c r="M8" t="n">
-        <v>1100.569</v>
+        <v>7201244</v>
       </c>
       <c r="N8" t="n">
-        <v>3.798</v>
+        <v>44262.986</v>
       </c>
       <c r="O8" t="n">
-        <v>13.066</v>
+        <v>118840.256</v>
       </c>
       <c r="P8" t="n">
-        <v>29.861</v>
+        <v>239796.266</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.988</v>
+        <v>434137.079</v>
       </c>
       <c r="R8" t="n">
-        <v>81.648</v>
+        <v>603876.194</v>
       </c>
       <c r="S8" t="n">
-        <v>121.199</v>
+        <v>866555.3050000001</v>
       </c>
       <c r="T8" t="n">
-        <v>221.003</v>
+        <v>1511648.849</v>
       </c>
       <c r="U8" t="n">
-        <v>307.224</v>
+        <v>2072480.088</v>
       </c>
       <c r="V8" t="n">
-        <v>3.799</v>
+        <v>31106.746</v>
       </c>
       <c r="W8" t="n">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="X8" t="n">
-        <v>6.902</v>
+        <v>53876.916</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.35</v>
+        <v>42491.831</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.08</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="9">
@@ -3571,73 +3572,73 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>13972.191</v>
+        <v>88410112</v>
       </c>
       <c r="F9" t="n">
-        <v>0.224</v>
+        <v>1575</v>
       </c>
       <c r="G9" t="n">
-        <v>4.043</v>
+        <v>14404</v>
       </c>
       <c r="H9" t="n">
-        <v>9.282</v>
+        <v>38784</v>
       </c>
       <c r="I9" t="n">
-        <v>24.643</v>
+        <v>124774</v>
       </c>
       <c r="J9" t="n">
-        <v>35.518</v>
+        <v>195859</v>
       </c>
       <c r="K9" t="n">
-        <v>48.957</v>
+        <v>261583</v>
       </c>
       <c r="L9" t="n">
-        <v>66.32899999999999</v>
+        <v>358686</v>
       </c>
       <c r="M9" t="n">
-        <v>91.827</v>
+        <v>502887</v>
       </c>
       <c r="N9" t="n">
-        <v>0.055</v>
+        <v>458.124</v>
       </c>
       <c r="O9" t="n">
-        <v>0.766</v>
+        <v>2924.324</v>
       </c>
       <c r="P9" t="n">
-        <v>1.872</v>
+        <v>7927.666</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.542</v>
+        <v>21802.53</v>
       </c>
       <c r="R9" t="n">
-        <v>7.286</v>
+        <v>37108.79</v>
       </c>
       <c r="S9" t="n">
-        <v>10.581</v>
+        <v>55528.346</v>
       </c>
       <c r="T9" t="n">
-        <v>15.059</v>
+        <v>80346.292</v>
       </c>
       <c r="U9" t="n">
-        <v>20.181</v>
+        <v>108953.854</v>
       </c>
       <c r="V9" t="n">
-        <v>0.249</v>
+        <v>1189.313</v>
       </c>
       <c r="W9" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2341.614</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1765.463</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0.002</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.373</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.003</v>
       </c>
     </row>
     <row r="10">
@@ -3662,73 +3663,73 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8460.191000000001</v>
+        <v>56802960</v>
       </c>
       <c r="F10" t="n">
-        <v>0.624</v>
+        <v>3049</v>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>30739</v>
       </c>
       <c r="H10" t="n">
-        <v>9.769</v>
+        <v>49804</v>
       </c>
       <c r="I10" t="n">
-        <v>11.592</v>
+        <v>78637</v>
       </c>
       <c r="J10" t="n">
-        <v>15.043</v>
+        <v>91966</v>
       </c>
       <c r="K10" t="n">
-        <v>16.529</v>
+        <v>102175</v>
       </c>
       <c r="L10" t="n">
-        <v>19.341</v>
+        <v>112278</v>
       </c>
       <c r="M10" t="n">
-        <v>21.6</v>
+        <v>139781</v>
       </c>
       <c r="N10" t="n">
-        <v>0.25</v>
+        <v>1501.321</v>
       </c>
       <c r="O10" t="n">
-        <v>2.137</v>
+        <v>11182.45</v>
       </c>
       <c r="P10" t="n">
-        <v>3.058</v>
+        <v>17886.103</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.338</v>
+        <v>30429.424</v>
       </c>
       <c r="R10" t="n">
-        <v>5.244</v>
+        <v>35756.023</v>
       </c>
       <c r="S10" t="n">
-        <v>5.848</v>
+        <v>39478.784</v>
       </c>
       <c r="T10" t="n">
-        <v>7.354</v>
+        <v>47155.452</v>
       </c>
       <c r="U10" t="n">
-        <v>8.202999999999999</v>
+        <v>54871.883</v>
       </c>
       <c r="V10" t="n">
-        <v>0.326</v>
+        <v>1949.376</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="X10" t="n">
-        <v>0.609</v>
+        <v>3676.725</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.467</v>
+        <v>2813.05</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="11">
@@ -3753,70 +3754,70 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3362.768</v>
+        <v>19213528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.078</v>
+        <v>938</v>
       </c>
       <c r="G11" t="n">
-        <v>0.494</v>
+        <v>1517</v>
       </c>
       <c r="H11" t="n">
-        <v>1.576</v>
+        <v>7785</v>
       </c>
       <c r="I11" t="n">
-        <v>3.365</v>
+        <v>17327</v>
       </c>
       <c r="J11" t="n">
-        <v>4.196</v>
+        <v>20363</v>
       </c>
       <c r="K11" t="n">
-        <v>7.18</v>
+        <v>25089</v>
       </c>
       <c r="L11" t="n">
-        <v>13.051</v>
+        <v>57264</v>
       </c>
       <c r="M11" t="n">
-        <v>17.408</v>
+        <v>70272</v>
       </c>
       <c r="N11" t="n">
-        <v>0.012</v>
+        <v>117.355</v>
       </c>
       <c r="O11" t="n">
-        <v>0.11</v>
+        <v>329.145</v>
       </c>
       <c r="P11" t="n">
-        <v>0.331</v>
+        <v>1333.885</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.841</v>
+        <v>4353.11</v>
       </c>
       <c r="R11" t="n">
-        <v>1.251</v>
+        <v>6741.639</v>
       </c>
       <c r="S11" t="n">
-        <v>1.939</v>
+        <v>9197.171</v>
       </c>
       <c r="T11" t="n">
-        <v>3.537</v>
+        <v>17600.592</v>
       </c>
       <c r="U11" t="n">
-        <v>4.929</v>
+        <v>22969.774</v>
       </c>
       <c r="V11" t="n">
-        <v>0.046</v>
+        <v>213.61</v>
       </c>
       <c r="W11" t="n">
         <v>0.001</v>
       </c>
       <c r="X11" t="n">
-        <v>0.091</v>
+        <v>419.376</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.068</v>
+        <v>316.493</v>
       </c>
       <c r="AA11" t="n">
         <v>0.002</v>
@@ -3844,70 +3845,70 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4837.085</v>
+        <v>32417258</v>
       </c>
       <c r="F12" t="n">
-        <v>4.827</v>
+        <v>40708</v>
       </c>
       <c r="G12" t="n">
-        <v>9.407999999999999</v>
+        <v>53549</v>
       </c>
       <c r="H12" t="n">
-        <v>11.078</v>
+        <v>61572</v>
       </c>
       <c r="I12" t="n">
-        <v>11.447</v>
+        <v>66009</v>
       </c>
       <c r="J12" t="n">
-        <v>11.58</v>
+        <v>76881</v>
       </c>
       <c r="K12" t="n">
-        <v>12.937</v>
+        <v>81719</v>
       </c>
       <c r="L12" t="n">
-        <v>14.851</v>
+        <v>94712</v>
       </c>
       <c r="M12" t="n">
-        <v>17.008</v>
+        <v>105224</v>
       </c>
       <c r="N12" t="n">
-        <v>2.722</v>
+        <v>25980.207</v>
       </c>
       <c r="O12" t="n">
-        <v>5.044</v>
+        <v>35933.909</v>
       </c>
       <c r="P12" t="n">
-        <v>6.606</v>
+        <v>40831.687</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.42</v>
+        <v>44416.21</v>
       </c>
       <c r="R12" t="n">
-        <v>7.867</v>
+        <v>47641.06</v>
       </c>
       <c r="S12" t="n">
-        <v>8.391999999999999</v>
+        <v>50364.705</v>
       </c>
       <c r="T12" t="n">
-        <v>9.234</v>
+        <v>56040.732</v>
       </c>
       <c r="U12" t="n">
-        <v>10.161</v>
+        <v>61171.045</v>
       </c>
       <c r="V12" t="n">
-        <v>0.881</v>
+        <v>6570.34</v>
       </c>
       <c r="W12" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="X12" t="n">
-        <v>1.216</v>
+        <v>7924.989</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.048</v>
+        <v>7247.664</v>
       </c>
       <c r="AA12" t="n">
         <v>0.022</v>
@@ -3935,73 +3936,73 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13683.593</v>
+        <v>85609488</v>
       </c>
       <c r="F13" t="n">
-        <v>0.522</v>
+        <v>1654</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9409999999999999</v>
+        <v>2248</v>
       </c>
       <c r="H13" t="n">
-        <v>1.122</v>
+        <v>2952</v>
       </c>
       <c r="I13" t="n">
-        <v>1.529</v>
+        <v>3872</v>
       </c>
       <c r="J13" t="n">
-        <v>1.949</v>
+        <v>5047</v>
       </c>
       <c r="K13" t="n">
-        <v>3.008</v>
+        <v>8812</v>
       </c>
       <c r="L13" t="n">
-        <v>3.718</v>
+        <v>15697</v>
       </c>
       <c r="M13" t="n">
-        <v>5.212</v>
+        <v>18685</v>
       </c>
       <c r="N13" t="n">
-        <v>0.188</v>
+        <v>699.605</v>
       </c>
       <c r="O13" t="n">
-        <v>0.337</v>
+        <v>897.908</v>
       </c>
       <c r="P13" t="n">
-        <v>0.378</v>
+        <v>1160.344</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.447</v>
+        <v>1330.867</v>
       </c>
       <c r="R13" t="n">
-        <v>0.532</v>
+        <v>1652.937</v>
       </c>
       <c r="S13" t="n">
-        <v>0.88</v>
+        <v>2505.125</v>
       </c>
       <c r="T13" t="n">
-        <v>1.288</v>
+        <v>4155.205</v>
       </c>
       <c r="U13" t="n">
-        <v>1.732</v>
+        <v>5275.517</v>
       </c>
       <c r="V13" t="n">
-        <v>0.06</v>
+        <v>188.186</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.081</v>
+        <v>234.53</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.07099999999999999</v>
+        <v>211.358</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4026,73 +4027,73 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4906.211</v>
+        <v>32137720</v>
       </c>
       <c r="F14" t="n">
-        <v>2.831</v>
+        <v>27853</v>
       </c>
       <c r="G14" t="n">
-        <v>10.059</v>
+        <v>87615</v>
       </c>
       <c r="H14" t="n">
-        <v>28.357</v>
+        <v>205710</v>
       </c>
       <c r="I14" t="n">
-        <v>69.596</v>
+        <v>509172</v>
       </c>
       <c r="J14" t="n">
-        <v>111.42</v>
+        <v>839690</v>
       </c>
       <c r="K14" t="n">
-        <v>171.49</v>
+        <v>1232984</v>
       </c>
       <c r="L14" t="n">
-        <v>244.914</v>
+        <v>1764834</v>
       </c>
       <c r="M14" t="n">
-        <v>297.247</v>
+        <v>2119432</v>
       </c>
       <c r="N14" t="n">
-        <v>0.376</v>
+        <v>4495.692</v>
       </c>
       <c r="O14" t="n">
-        <v>1.943</v>
+        <v>20573.455</v>
       </c>
       <c r="P14" t="n">
-        <v>6.069</v>
+        <v>54272.182</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.383</v>
+        <v>113229.541</v>
       </c>
       <c r="R14" t="n">
-        <v>23.424</v>
+        <v>183713.976</v>
       </c>
       <c r="S14" t="n">
-        <v>36.458</v>
+        <v>273994.01</v>
       </c>
       <c r="T14" t="n">
-        <v>58.472</v>
+        <v>433398.929</v>
       </c>
       <c r="U14" t="n">
-        <v>78.631</v>
+        <v>574360.154</v>
       </c>
       <c r="V14" t="n">
-        <v>0.824</v>
+        <v>6987.014</v>
       </c>
       <c r="W14" t="n">
-        <v>0.017</v>
+        <v>0.022</v>
       </c>
       <c r="X14" t="n">
-        <v>1.6</v>
+        <v>13249.508</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.033</v>
+        <v>0.041</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.212</v>
+        <v>10118.261</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.025</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="15">
@@ -4117,70 +4118,70 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20212.414</v>
+        <v>121116504</v>
       </c>
       <c r="F15" t="n">
-        <v>0.075</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.067</v>
+        <v>10493</v>
       </c>
       <c r="H15" t="n">
-        <v>6.808</v>
+        <v>38634</v>
       </c>
       <c r="I15" t="n">
-        <v>22.957</v>
+        <v>114066</v>
       </c>
       <c r="J15" t="n">
-        <v>115.698</v>
+        <v>612272</v>
       </c>
       <c r="K15" t="n">
-        <v>244.937</v>
+        <v>1362801</v>
       </c>
       <c r="L15" t="n">
-        <v>393.753</v>
+        <v>2166763</v>
       </c>
       <c r="M15" t="n">
-        <v>564.361</v>
+        <v>3105089</v>
       </c>
       <c r="N15" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.287</v>
+        <v>1405.243</v>
       </c>
       <c r="P15" t="n">
-        <v>1.35</v>
+        <v>6578.609</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.19</v>
+        <v>20955.442</v>
       </c>
       <c r="R15" t="n">
-        <v>16.839</v>
+        <v>88735.48299999999</v>
       </c>
       <c r="S15" t="n">
-        <v>43.784</v>
+        <v>240648.686</v>
       </c>
       <c r="T15" t="n">
-        <v>92.173</v>
+        <v>508813.62</v>
       </c>
       <c r="U15" t="n">
-        <v>148.648</v>
+        <v>818493.262</v>
       </c>
       <c r="V15" t="n">
-        <v>0.555</v>
+        <v>2970.105</v>
       </c>
       <c r="W15" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="X15" t="n">
-        <v>1.034</v>
+        <v>5533.65</v>
       </c>
       <c r="Y15" t="n">
         <v>0.005</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.795</v>
+        <v>4251.878</v>
       </c>
       <c r="AA15" t="n">
         <v>0.004</v>
@@ -4208,73 +4209,73 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11018.945</v>
+        <v>68554216</v>
       </c>
       <c r="F16" t="n">
-        <v>0.031</v>
+        <v>463</v>
       </c>
       <c r="G16" t="n">
-        <v>4.675</v>
+        <v>21647</v>
       </c>
       <c r="H16" t="n">
-        <v>14.769</v>
+        <v>72789</v>
       </c>
       <c r="I16" t="n">
-        <v>24.451</v>
+        <v>110226</v>
       </c>
       <c r="J16" t="n">
-        <v>31.592</v>
+        <v>155455</v>
       </c>
       <c r="K16" t="n">
-        <v>39.988</v>
+        <v>194575</v>
       </c>
       <c r="L16" t="n">
-        <v>50.114</v>
+        <v>241559</v>
       </c>
       <c r="M16" t="n">
-        <v>60.843</v>
+        <v>291533</v>
       </c>
       <c r="N16" t="n">
-        <v>0.003</v>
+        <v>45.242</v>
       </c>
       <c r="O16" t="n">
-        <v>0.49</v>
+        <v>2318.094</v>
       </c>
       <c r="P16" t="n">
-        <v>1.824</v>
+        <v>9242.373</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.616</v>
+        <v>16665.867</v>
       </c>
       <c r="R16" t="n">
-        <v>5.043</v>
+        <v>23880.023</v>
       </c>
       <c r="S16" t="n">
-        <v>6.668</v>
+        <v>31605.872</v>
       </c>
       <c r="T16" t="n">
-        <v>8.904999999999999</v>
+        <v>42085.785</v>
       </c>
       <c r="U16" t="n">
-        <v>11.094</v>
+        <v>52397.092</v>
       </c>
       <c r="V16" t="n">
-        <v>0.181</v>
+        <v>873.059</v>
       </c>
       <c r="W16" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="X16" t="n">
-        <v>0.37</v>
+        <v>1769.388</v>
       </c>
       <c r="Y16" t="n">
         <v>0.003</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.276</v>
+        <v>1321.224</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="17">
@@ -4299,70 +4300,70 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15583.444</v>
+        <v>103315496</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02</v>
+        <v>224</v>
       </c>
       <c r="H17" t="n">
-        <v>17.259</v>
+        <v>107947</v>
       </c>
       <c r="I17" t="n">
-        <v>27.431</v>
+        <v>180431</v>
       </c>
       <c r="J17" t="n">
-        <v>33.333</v>
+        <v>241969</v>
       </c>
       <c r="K17" t="n">
-        <v>43.306</v>
+        <v>292188</v>
       </c>
       <c r="L17" t="n">
-        <v>56.706</v>
+        <v>366333</v>
       </c>
       <c r="M17" t="n">
-        <v>66.467</v>
+        <v>438562</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002</v>
+        <v>17.95</v>
       </c>
       <c r="P17" t="n">
-        <v>1.886</v>
+        <v>12553.341</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.814</v>
+        <v>26007.806</v>
       </c>
       <c r="R17" t="n">
-        <v>5.121</v>
+        <v>36650.705</v>
       </c>
       <c r="S17" t="n">
-        <v>6.723</v>
+        <v>46321.715</v>
       </c>
       <c r="T17" t="n">
-        <v>9.19</v>
+        <v>60528.795</v>
       </c>
       <c r="U17" t="n">
-        <v>11.132</v>
+        <v>74204.08</v>
       </c>
       <c r="V17" t="n">
-        <v>0.161</v>
+        <v>1094.527</v>
       </c>
       <c r="W17" t="n">
         <v>0.001</v>
       </c>
       <c r="X17" t="n">
-        <v>0.332</v>
+        <v>2263.602</v>
       </c>
       <c r="Y17" t="n">
         <v>0.002</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.247</v>
+        <v>1679.065</v>
       </c>
       <c r="AA17" t="n">
         <v>0.002</v>
@@ -4390,70 +4391,70 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26649.865</v>
+        <v>160375264</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08599999999999999</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>0.133</v>
+        <v>4440</v>
       </c>
       <c r="H18" t="n">
-        <v>0.745</v>
+        <v>4803</v>
       </c>
       <c r="I18" t="n">
-        <v>1.282</v>
+        <v>7690</v>
       </c>
       <c r="J18" t="n">
-        <v>1.573</v>
+        <v>9264</v>
       </c>
       <c r="K18" t="n">
-        <v>1.78</v>
+        <v>11928</v>
       </c>
       <c r="L18" t="n">
-        <v>3.149</v>
+        <v>18854</v>
       </c>
       <c r="M18" t="n">
-        <v>4.584</v>
+        <v>25835</v>
       </c>
       <c r="N18" t="n">
-        <v>0.012</v>
+        <v>3.54</v>
       </c>
       <c r="O18" t="n">
-        <v>0.024</v>
+        <v>1083.264</v>
       </c>
       <c r="P18" t="n">
-        <v>0.114</v>
+        <v>1487.39</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.217</v>
+        <v>2283.572</v>
       </c>
       <c r="R18" t="n">
-        <v>0.315</v>
+        <v>2992.195</v>
       </c>
       <c r="S18" t="n">
-        <v>0.42</v>
+        <v>3929.937</v>
       </c>
       <c r="T18" t="n">
-        <v>0.658</v>
+        <v>5451.492</v>
       </c>
       <c r="U18" t="n">
-        <v>0.976</v>
+        <v>7050.316</v>
       </c>
       <c r="V18" t="n">
-        <v>0.012</v>
+        <v>161.227</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.023</v>
+        <v>324.18</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.018</v>
+        <v>242.703</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
@@ -4481,73 +4482,73 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>13296.402</v>
+        <v>77831040</v>
       </c>
       <c r="F19" t="n">
-        <v>2.325</v>
+        <v>3487</v>
       </c>
       <c r="G19" t="n">
-        <v>3.576</v>
+        <v>9429</v>
       </c>
       <c r="H19" t="n">
-        <v>5.518</v>
+        <v>16637</v>
       </c>
       <c r="I19" t="n">
-        <v>15.435</v>
+        <v>61476</v>
       </c>
       <c r="J19" t="n">
-        <v>37.663</v>
+        <v>187050</v>
       </c>
       <c r="K19" t="n">
-        <v>54.875</v>
+        <v>310115</v>
       </c>
       <c r="L19" t="n">
-        <v>85.667</v>
+        <v>489128</v>
       </c>
       <c r="M19" t="n">
-        <v>106.659</v>
+        <v>628655</v>
       </c>
       <c r="N19" t="n">
-        <v>0.947</v>
+        <v>1198.086</v>
       </c>
       <c r="O19" t="n">
-        <v>1.82</v>
+        <v>3792.639</v>
       </c>
       <c r="P19" t="n">
-        <v>2.467</v>
+        <v>5557.364</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.874</v>
+        <v>12006.21</v>
       </c>
       <c r="R19" t="n">
-        <v>6.85</v>
+        <v>27718.396</v>
       </c>
       <c r="S19" t="n">
-        <v>10.098</v>
+        <v>46393.362</v>
       </c>
       <c r="T19" t="n">
-        <v>15.3</v>
+        <v>76670.122</v>
       </c>
       <c r="U19" t="n">
-        <v>19.622</v>
+        <v>103501.309</v>
       </c>
       <c r="V19" t="n">
-        <v>0.398</v>
+        <v>1054.167</v>
       </c>
       <c r="W19" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="X19" t="n">
-        <v>0.606</v>
+        <v>1859.981</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.502</v>
+        <v>1457.074</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="20">
@@ -4572,73 +4573,73 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4357.522</v>
+        <v>30316104</v>
       </c>
       <c r="F20" t="n">
-        <v>0.616</v>
+        <v>11626</v>
       </c>
       <c r="G20" t="n">
-        <v>0.722</v>
+        <v>15837</v>
       </c>
       <c r="H20" t="n">
-        <v>0.902</v>
+        <v>18678</v>
       </c>
       <c r="I20" t="n">
-        <v>1.02</v>
+        <v>21487</v>
       </c>
       <c r="J20" t="n">
-        <v>1.11</v>
+        <v>24323</v>
       </c>
       <c r="K20" t="n">
-        <v>1.149</v>
+        <v>29205</v>
       </c>
       <c r="L20" t="n">
-        <v>1.733</v>
+        <v>32894</v>
       </c>
       <c r="M20" t="n">
-        <v>1.945</v>
+        <v>38058</v>
       </c>
       <c r="N20" t="n">
-        <v>0.21</v>
+        <v>4618.612</v>
       </c>
       <c r="O20" t="n">
-        <v>0.305</v>
+        <v>6972.766</v>
       </c>
       <c r="P20" t="n">
-        <v>0.392</v>
+        <v>8534.056</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.466</v>
+        <v>10589.604</v>
       </c>
       <c r="R20" t="n">
-        <v>0.519</v>
+        <v>12117.767</v>
       </c>
       <c r="S20" t="n">
-        <v>0.575</v>
+        <v>14120.804</v>
       </c>
       <c r="T20" t="n">
-        <v>0.695</v>
+        <v>16567.601</v>
       </c>
       <c r="U20" t="n">
-        <v>0.78</v>
+        <v>18708.44</v>
       </c>
       <c r="V20" t="n">
-        <v>0.058</v>
+        <v>1310.644</v>
       </c>
       <c r="W20" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="X20" t="n">
-        <v>0.075</v>
+        <v>1701.86</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.067</v>
+        <v>1506.252</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="21">
@@ -4663,73 +4664,73 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13019.141</v>
+        <v>81216848</v>
       </c>
       <c r="F21" t="n">
-        <v>3.243</v>
+        <v>30370</v>
       </c>
       <c r="G21" t="n">
-        <v>6.376</v>
+        <v>63030</v>
       </c>
       <c r="H21" t="n">
-        <v>10.106</v>
+        <v>85789</v>
       </c>
       <c r="I21" t="n">
-        <v>19.208</v>
+        <v>131668</v>
       </c>
       <c r="J21" t="n">
-        <v>34.063</v>
+        <v>215320</v>
       </c>
       <c r="K21" t="n">
-        <v>51.663</v>
+        <v>322418</v>
       </c>
       <c r="L21" t="n">
-        <v>76.62</v>
+        <v>459124</v>
       </c>
       <c r="M21" t="n">
-        <v>102.667</v>
+        <v>578266</v>
       </c>
       <c r="N21" t="n">
-        <v>0.658</v>
+        <v>4699.352</v>
       </c>
       <c r="O21" t="n">
-        <v>1.558</v>
+        <v>12859.732</v>
       </c>
       <c r="P21" t="n">
-        <v>2.142</v>
+        <v>17044.968</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.443</v>
+        <v>23888.199</v>
       </c>
       <c r="R21" t="n">
-        <v>5.475</v>
+        <v>34907.543</v>
       </c>
       <c r="S21" t="n">
-        <v>8.16</v>
+        <v>50181.004</v>
       </c>
       <c r="T21" t="n">
-        <v>12.478</v>
+        <v>74101.151</v>
       </c>
       <c r="U21" t="n">
-        <v>16.545</v>
+        <v>95701.87699999999</v>
       </c>
       <c r="V21" t="n">
-        <v>0.323</v>
+        <v>2358.037</v>
       </c>
       <c r="W21" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="X21" t="n">
-        <v>0.516</v>
+        <v>3772.853</v>
       </c>
       <c r="Y21" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>3065.445</v>
+      </c>
+      <c r="AA21" t="n">
         <v>0.004</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.003</v>
       </c>
     </row>
     <row r="22">
@@ -4754,73 +4755,73 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5244.875</v>
+        <v>26852094</v>
       </c>
       <c r="F22" t="n">
-        <v>1.486</v>
+        <v>7679</v>
       </c>
       <c r="G22" t="n">
-        <v>8.925000000000001</v>
+        <v>24247</v>
       </c>
       <c r="H22" t="n">
-        <v>12.361</v>
+        <v>33932</v>
       </c>
       <c r="I22" t="n">
-        <v>16.294</v>
+        <v>41124</v>
       </c>
       <c r="J22" t="n">
-        <v>18.725</v>
+        <v>48515</v>
       </c>
       <c r="K22" t="n">
-        <v>20.945</v>
+        <v>51083</v>
       </c>
       <c r="L22" t="n">
-        <v>23.122</v>
+        <v>58768</v>
       </c>
       <c r="M22" t="n">
-        <v>24.624</v>
+        <v>63731</v>
       </c>
       <c r="N22" t="n">
-        <v>0.27</v>
+        <v>1213.94</v>
       </c>
       <c r="O22" t="n">
-        <v>1.972</v>
+        <v>5871.574</v>
       </c>
       <c r="P22" t="n">
-        <v>2.931</v>
+        <v>8232.103999999999</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.34</v>
+        <v>10961.315</v>
       </c>
       <c r="R22" t="n">
-        <v>5.407</v>
+        <v>13432.693</v>
       </c>
       <c r="S22" t="n">
-        <v>6.838</v>
+        <v>15797.214</v>
       </c>
       <c r="T22" t="n">
-        <v>8.475</v>
+        <v>19015.261</v>
       </c>
       <c r="U22" t="n">
-        <v>9.619999999999999</v>
+        <v>21643.018</v>
       </c>
       <c r="V22" t="n">
-        <v>0.323</v>
+        <v>926.7619999999999</v>
       </c>
       <c r="W22" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1619.604</v>
+      </c>
+      <c r="Y22" t="n">
         <v>0.006</v>
       </c>
-      <c r="X22" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.011</v>
-      </c>
       <c r="Z22" t="n">
-        <v>0.46</v>
+        <v>1273.183</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="23">
@@ -4845,73 +4846,73 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1758.172</v>
+        <v>10553869</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="G23" t="n">
-        <v>0.153</v>
+        <v>1887</v>
       </c>
       <c r="H23" t="n">
-        <v>0.753</v>
+        <v>2422</v>
       </c>
       <c r="I23" t="n">
-        <v>1.043</v>
+        <v>4427</v>
       </c>
       <c r="J23" t="n">
-        <v>1.839</v>
+        <v>7311</v>
       </c>
       <c r="K23" t="n">
-        <v>3.204</v>
+        <v>10297</v>
       </c>
       <c r="L23" t="n">
-        <v>5.275</v>
+        <v>17243</v>
       </c>
       <c r="M23" t="n">
-        <v>6.447</v>
+        <v>19306</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>26.232</v>
       </c>
       <c r="O23" t="n">
-        <v>0.031</v>
+        <v>832.384</v>
       </c>
       <c r="P23" t="n">
-        <v>0.105</v>
+        <v>946.665</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.176</v>
+        <v>1241.267</v>
       </c>
       <c r="R23" t="n">
-        <v>0.307</v>
+        <v>2730.167</v>
       </c>
       <c r="S23" t="n">
-        <v>0.509</v>
+        <v>3257.673</v>
       </c>
       <c r="T23" t="n">
-        <v>1.278</v>
+        <v>5121.287</v>
       </c>
       <c r="U23" t="n">
-        <v>1.651</v>
+        <v>6357.762</v>
       </c>
       <c r="V23" t="n">
-        <v>0.012</v>
+        <v>119.958</v>
       </c>
       <c r="W23" t="n">
         <v>0.001</v>
       </c>
       <c r="X23" t="n">
-        <v>0.025</v>
+        <v>233.121</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.019</v>
+        <v>176.54</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="24">
@@ -4936,7 +4937,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>9973.541999999999</v>
+        <v>64680816</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -4945,22 +4946,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1.063</v>
+        <v>5687</v>
       </c>
       <c r="L24" t="n">
-        <v>5.184</v>
+        <v>48962</v>
       </c>
       <c r="M24" t="n">
-        <v>7.933</v>
+        <v>74767</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -4969,37 +4970,37 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.122</v>
+        <v>649.765</v>
       </c>
       <c r="T24" t="n">
-        <v>0.644</v>
+        <v>5893.663</v>
       </c>
       <c r="U24" t="n">
-        <v>1.089</v>
+        <v>10029.387</v>
       </c>
       <c r="V24" t="n">
-        <v>0.002</v>
+        <v>17.872</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0.005</v>
+        <v>30.959</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.004</v>
+        <v>24.416</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -5027,70 +5028,70 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4243.133</v>
+        <v>28451508</v>
       </c>
       <c r="F25" t="n">
-        <v>1.565</v>
+        <v>12899</v>
       </c>
       <c r="G25" t="n">
-        <v>2.29</v>
+        <v>20054</v>
       </c>
       <c r="H25" t="n">
-        <v>4.494</v>
+        <v>35838</v>
       </c>
       <c r="I25" t="n">
-        <v>5.235</v>
+        <v>44914</v>
       </c>
       <c r="J25" t="n">
-        <v>5.459</v>
+        <v>45417</v>
       </c>
       <c r="K25" t="n">
-        <v>6.463</v>
+        <v>47391</v>
       </c>
       <c r="L25" t="n">
-        <v>6.686</v>
+        <v>60665</v>
       </c>
       <c r="M25" t="n">
-        <v>8.427</v>
+        <v>73250</v>
       </c>
       <c r="N25" t="n">
-        <v>0.827</v>
+        <v>6394.789</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>10260.263</v>
       </c>
       <c r="P25" t="n">
-        <v>2.653</v>
+        <v>16894.062</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.279</v>
+        <v>21309.179</v>
       </c>
       <c r="R25" t="n">
-        <v>3.556</v>
+        <v>23732.764</v>
       </c>
       <c r="S25" t="n">
-        <v>3.989</v>
+        <v>25729.662</v>
       </c>
       <c r="T25" t="n">
-        <v>4.36</v>
+        <v>29742.152</v>
       </c>
       <c r="U25" t="n">
-        <v>4.735</v>
+        <v>34069.861</v>
       </c>
       <c r="V25" t="n">
-        <v>0.298</v>
+        <v>2132.071</v>
       </c>
       <c r="W25" t="n">
         <v>0.007</v>
       </c>
       <c r="X25" t="n">
-        <v>0.433</v>
+        <v>2999.277</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.366</v>
+        <v>2565.674</v>
       </c>
       <c r="AA25" t="n">
         <v>0.008999999999999999</v>
@@ -5107,7 +5108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5118,6 +5119,2346 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>HASC_0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>HASC_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NAM_0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NAM_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ADM1_AGR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RP5_AGR_exp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>RP10_AGR_exp</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RP20_AGR_exp</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>RP50_AGR_exp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RP100_AGR_exp</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RP200_AGR_exp</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RP500_AGR_exp</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>RP1000_AGR_exp</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RP5_AGR_imp</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>RP10_AGR_imp</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>RP20_AGR_imp</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>RP50_AGR_imp</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>RP100_AGR_imp</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RP200_AGR_imp</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>RP500_AGR_imp</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>RP1000_AGR_imp</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_EAI_LB</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_EAI%_LB</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_EAI_UB</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_EAI%_UB</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_EAI</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_EAI%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TN.AN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ariana</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>174.21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="K2" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.953</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5.346</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TN.BJ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Beja</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1618.98</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="K3" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>35.23</v>
+      </c>
+      <c r="M3" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.319</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.693</v>
+      </c>
+      <c r="R3" t="n">
+        <v>12.204</v>
+      </c>
+      <c r="S3" t="n">
+        <v>16.384</v>
+      </c>
+      <c r="T3" t="n">
+        <v>21.433</v>
+      </c>
+      <c r="U3" t="n">
+        <v>25.335</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TN.BA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ben Arous</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>221.14</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.412</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.794</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.278</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.651</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TN.BZ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bizerte</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1346.91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="I5" t="n">
+        <v>65.16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="K5" t="n">
+        <v>106.18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>120.21</v>
+      </c>
+      <c r="M5" t="n">
+        <v>136.26</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>10.171</v>
+      </c>
+      <c r="R5" t="n">
+        <v>18.123</v>
+      </c>
+      <c r="S5" t="n">
+        <v>28.488</v>
+      </c>
+      <c r="T5" t="n">
+        <v>46.085</v>
+      </c>
+      <c r="U5" t="n">
+        <v>59.98</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TN.GB</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gabes</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>629.83</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TN.GF</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Gafsa</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.949</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.083</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TN.JE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jendouba</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>986.49</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="I8" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>61.32</v>
+      </c>
+      <c r="L8" t="n">
+        <v>86.98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>103.61</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.497</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6.797</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.319000000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>13.505</v>
+      </c>
+      <c r="R8" t="n">
+        <v>17.983</v>
+      </c>
+      <c r="S8" t="n">
+        <v>23.944</v>
+      </c>
+      <c r="T8" t="n">
+        <v>34.873</v>
+      </c>
+      <c r="U8" t="n">
+        <v>45.135</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TN.KR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Kairouan</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1775.42</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="J9" t="n">
+        <v>31.42</v>
+      </c>
+      <c r="K9" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>52.91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>67.65000000000001</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.976</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4.624</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7.208</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10.658</v>
+      </c>
+      <c r="T9" t="n">
+        <v>15.856</v>
+      </c>
+      <c r="U9" t="n">
+        <v>21.645</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TN.KS</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Kasserine</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1835.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3.498</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.798</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4.131</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.557</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TN.KB</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Kebili</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>120.53</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.193</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TN.KF</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Le Kef</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2325.54</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21.78</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4.461</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9.234999999999999</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>10.516</v>
+      </c>
+      <c r="R12" t="n">
+        <v>11.409</v>
+      </c>
+      <c r="S12" t="n">
+        <v>12.443</v>
+      </c>
+      <c r="T12" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="U12" t="n">
+        <v>15.283</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TN.MH</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mahdia</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>612.11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TN.MN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Manouba</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>622.88</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="J14" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>58.51</v>
+      </c>
+      <c r="L14" t="n">
+        <v>70.28</v>
+      </c>
+      <c r="M14" t="n">
+        <v>75.14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.369</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.208</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>8.935</v>
+      </c>
+      <c r="R14" t="n">
+        <v>13.352</v>
+      </c>
+      <c r="S14" t="n">
+        <v>18.562</v>
+      </c>
+      <c r="T14" t="n">
+        <v>25.974</v>
+      </c>
+      <c r="U14" t="n">
+        <v>31.771</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TN.ME</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Medenine</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1147.49</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="L15" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="M15" t="n">
+        <v>11.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.442</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.553</v>
+      </c>
+      <c r="U15" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TN.MS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Monastir</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>283.32</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TN.NB</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nabeul</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>905.3200000000001</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TN.SF</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sfax</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>817.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TN.SZ</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sidi Bouz</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1172.83</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="K19" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="L19" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>33.28</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.707</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.953</v>
+      </c>
+      <c r="T19" t="n">
+        <v>6.696</v>
+      </c>
+      <c r="U19" t="n">
+        <v>8.334</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TN.SL</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Siliana</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1790.64</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="I20" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="M20" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.596</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3.702</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5.943</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6.471</v>
+      </c>
+      <c r="S20" t="n">
+        <v>7.025</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7.896</v>
+      </c>
+      <c r="U20" t="n">
+        <v>8.768000000000001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TN.SS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sousse</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>786.12</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="J21" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="L21" t="n">
+        <v>36.95</v>
+      </c>
+      <c r="M21" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.768</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4.257</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6.094</v>
+      </c>
+      <c r="T21" t="n">
+        <v>9.257999999999999</v>
+      </c>
+      <c r="U21" t="n">
+        <v>12.301</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TN.TA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tataouine</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>369.44</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.707</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.965</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TN.TO</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Tozeur</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>67.33</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="L23" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="M23" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.129</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="T23" t="n">
+        <v>5.348</v>
+      </c>
+      <c r="U23" t="n">
+        <v>7.333</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TN.TU</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Tunis</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>62.74</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TN.ZA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zaghouan</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1124.34</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="L25" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.968</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.661</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.149</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4.438</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.893</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5.523</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6.182</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.053</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
           <t>RP</t>
         </is>
       </c>
@@ -5149,6 +7490,16 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>BU_EAI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_impact</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>AGR_EAI</t>
         </is>
       </c>
     </row>
@@ -5163,16 +7514,22 @@
         <v>0.1</v>
       </c>
       <c r="D2" t="n">
-        <v>340.017</v>
+        <v>139.902</v>
       </c>
       <c r="E2" t="n">
-        <v>34.002</v>
+        <v>13.99</v>
       </c>
       <c r="F2" t="n">
-        <v>14.22</v>
+        <v>124852.654</v>
       </c>
       <c r="G2" t="n">
-        <v>1.422</v>
+        <v>12485.265</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15.022</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.502</v>
       </c>
     </row>
     <row r="3">
@@ -5186,16 +7543,22 @@
         <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>758.857</v>
+        <v>295.348</v>
       </c>
       <c r="E3" t="n">
-        <v>37.943</v>
+        <v>14.767</v>
       </c>
       <c r="F3" t="n">
-        <v>46.815</v>
+        <v>342691.958</v>
       </c>
       <c r="G3" t="n">
-        <v>2.341</v>
+        <v>17134.598</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33.352</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.668</v>
       </c>
     </row>
     <row r="4">
@@ -5209,16 +7572,22 @@
         <v>0.03</v>
       </c>
       <c r="D4" t="n">
-        <v>1425.503</v>
+        <v>560.944</v>
       </c>
       <c r="E4" t="n">
-        <v>42.765</v>
+        <v>16.828</v>
       </c>
       <c r="F4" t="n">
-        <v>101.9</v>
+        <v>703257.124</v>
       </c>
       <c r="G4" t="n">
-        <v>3.057</v>
+        <v>21097.714</v>
+      </c>
+      <c r="H4" t="n">
+        <v>53.151</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.595</v>
       </c>
     </row>
     <row r="5">
@@ -5232,16 +7601,22 @@
         <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>2422.979</v>
+        <v>936.779</v>
       </c>
       <c r="E5" t="n">
-        <v>24.23</v>
+        <v>9.368</v>
       </c>
       <c r="F5" t="n">
-        <v>188.742</v>
+        <v>1257325.429</v>
       </c>
       <c r="G5" t="n">
-        <v>1.887</v>
+        <v>12573.254</v>
+      </c>
+      <c r="H5" t="n">
+        <v>84.834</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.848</v>
       </c>
     </row>
     <row r="6">
@@ -5255,16 +7630,22 @@
         <v>0.005</v>
       </c>
       <c r="D6" t="n">
-        <v>3287.802</v>
+        <v>1299.662</v>
       </c>
       <c r="E6" t="n">
-        <v>16.439</v>
+        <v>6.498</v>
       </c>
       <c r="F6" t="n">
-        <v>286.352</v>
+        <v>1880672.052</v>
       </c>
       <c r="G6" t="n">
-        <v>1.432</v>
+        <v>9403.360000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>116.226</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.581</v>
       </c>
     </row>
     <row r="7">
@@ -5278,16 +7659,22 @@
         <v>0.003</v>
       </c>
       <c r="D7" t="n">
-        <v>4225.337</v>
+        <v>1705.293</v>
       </c>
       <c r="E7" t="n">
-        <v>12.676</v>
+        <v>5.116</v>
       </c>
       <c r="F7" t="n">
-        <v>424.836</v>
+        <v>2751501.413</v>
       </c>
       <c r="G7" t="n">
-        <v>1.275</v>
+        <v>8254.504000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>154.876</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.465</v>
       </c>
     </row>
     <row r="8">
@@ -5301,16 +7688,22 @@
         <v>0.001</v>
       </c>
       <c r="D8" t="n">
-        <v>5635.282</v>
+        <v>2384.294</v>
       </c>
       <c r="E8" t="n">
-        <v>5.635</v>
+        <v>2.384</v>
       </c>
       <c r="F8" t="n">
-        <v>691.804</v>
+        <v>4426675.209</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6919999999999999</v>
+        <v>4426.675</v>
+      </c>
+      <c r="H8" t="n">
+        <v>217.613</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.218</v>
       </c>
     </row>
     <row r="9">
@@ -5324,16 +7717,36 @@
         <v>0.001</v>
       </c>
       <c r="D9" t="n">
-        <v>6860.767</v>
+        <v>3011.949</v>
       </c>
       <c r="E9" t="n">
-        <v>6.861</v>
+        <v>3.012</v>
       </c>
       <c r="F9" t="n">
-        <v>941.659</v>
+        <v>5983588.391</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9419999999999999</v>
+        <v>5983.588</v>
+      </c>
+      <c r="H9" t="n">
+        <v>272.856</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Custom exposure layer for POP: TUN_POP_GHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Custom exposure layer for BU: TUN_BU_GHS</t>
+        </is>
       </c>
     </row>
   </sheetData>
